--- a/doc/03_Technischer_Bericht_Teil_2/04_Entwurf/NutzwertanalysePDFAufSurface.xlsx
+++ b/doc/03_Technischer_Bericht_Teil_2/04_Entwurf/NutzwertanalysePDFAufSurface.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Nutzwertanalyse: PDF auf Surface 2 darstellen</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>Rang</t>
+  </si>
+  <si>
+    <t>Total Punkte</t>
   </si>
 </sst>
 </file>
@@ -462,7 +465,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,7 +680,7 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
